--- a/src/test/java/resources/optiim.xlsx
+++ b/src/test/java/resources/optiim.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayku\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayku\IdeaProjects\optiimUseCase\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA91D29-7BEF-4342-903C-2FAD551EBDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E581899-EAC6-4DAA-ADDF-2AEF9788CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="login_info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,25 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Username</t>
+    <t>raykurt@hotmail.com</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>123Recep</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,27 +363,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/resources/optiim.xlsx
+++ b/src/test/java/resources/optiim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayku\IdeaProjects\optiimUseCase\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E581899-EAC6-4DAA-ADDF-2AEF9788CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF35A92-FA4C-4344-A9E4-28A3BCFB2177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
